--- a/data/trans_orig/P78_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P78_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A54EFEE-DD0F-4AA1-B20F-ACB4DCBC9BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F178AC8-1A38-4E0A-AA09-7D86E8452A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2ADE6736-D1C3-4451-9C3D-FFD1A84A8FB3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EDF5423A-8A70-4BF4-AE9E-C79DC3EEE73E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,175 +74,175 @@
     <t>87,77%</t>
   </si>
   <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
     <t>56,19%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
   </si>
   <si>
     <t>43,81%</t>
   </si>
   <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
     <t>10/50</t>
   </si>
   <si>
     <t>77,69%</t>
   </si>
   <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
   </si>
   <si>
     <t>59,36%</t>
   </si>
   <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
   </si>
   <si>
     <t>63,96%</t>
   </si>
   <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
   </si>
   <si>
     <t>22,31%</t>
   </si>
   <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
   </si>
   <si>
     <t>40,64%</t>
   </si>
   <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
   </si>
   <si>
     <t>36,04%</t>
   </si>
   <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -251,55 +251,55 @@
     <t>73,47%</t>
   </si>
   <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
   </si>
   <si>
     <t>45,45%</t>
   </si>
   <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
   </si>
   <si>
     <t>51,7%</t>
   </si>
   <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
   </si>
   <si>
     <t>26,53%</t>
   </si>
   <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
   </si>
   <si>
     <t>54,55%</t>
   </si>
   <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
   </si>
   <si>
     <t>48,3%</t>
   </si>
   <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,109 +308,109 @@
     <t>75,74%</t>
   </si>
   <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
   </si>
   <si>
     <t>54,96%</t>
   </si>
   <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
   </si>
   <si>
     <t>59,85%</t>
   </si>
   <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
   </si>
   <si>
     <t>24,26%</t>
   </si>
   <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
   </si>
   <si>
     <t>45,04%</t>
   </si>
   <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
   </si>
   <si>
     <t>40,15%</t>
   </si>
   <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
   </si>
   <si>
     <t>76,14%</t>
   </si>
   <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
   </si>
   <si>
     <t>54,03%</t>
   </si>
   <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
   </si>
   <si>
     <t>59,14%</t>
   </si>
   <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
   </si>
   <si>
     <t>23,86%</t>
   </si>
   <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
   </si>
   <si>
     <t>45,97%</t>
   </si>
   <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
   </si>
   <si>
     <t>40,86%</t>
   </si>
   <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97233AB-F534-4713-8A7B-CCFF43B64AB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB631DF-CF4F-46EE-980F-9F2E2B8027E4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P78_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P78_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F178AC8-1A38-4E0A-AA09-7D86E8452A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A42A1B8C-3000-4F90-9D27-8C3A869B20D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EDF5423A-8A70-4BF4-AE9E-C79DC3EEE73E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{731A2017-A461-4421-92CE-5BA67B7AD36E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -131,7 +131,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>75,26%</t>
@@ -188,7 +188,7 @@
     <t>43,81%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>77,69%</t>
@@ -245,7 +245,7 @@
     <t>39,7%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>73,47%</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB631DF-CF4F-46EE-980F-9F2E2B8027E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3268FAD3-ED41-4F1D-B179-ECB8A4BA6AA9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P78_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P78_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A42A1B8C-3000-4F90-9D27-8C3A869B20D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB54E107-8C9D-4B1A-BBC2-A66E6A701A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{731A2017-A461-4421-92CE-5BA67B7AD36E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{655891E2-32B0-4895-8524-2CCCBE7484E8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
   <si>
-    <t>Población según si trabajan actualmente en 2023 (Tasa respuesta: 29,19%)</t>
+    <t>Población según si la persona sustentadora principal trabaja actualmente en 2023 (Tasa respuesta: 66,62%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>12,23%</t>
+    <t>3,44%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,283 +134,283 @@
     <t>2-10.000 hab</t>
   </si>
   <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
   </si>
   <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
   </si>
   <si>
     <t>64,22%</t>
   </si>
   <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
   </si>
   <si>
     <t>35,78%</t>
   </si>
   <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3268FAD3-ED41-4F1D-B179-ECB8A4BA6AA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66153837-5E1F-4006-99D9-1236EB913C29}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -943,10 +943,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D4" s="7">
-        <v>14863</v>
+        <v>58195</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -958,10 +958,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="I4" s="7">
-        <v>26727</v>
+        <v>62456</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -973,10 +973,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="N4" s="7">
-        <v>41590</v>
+        <v>120651</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1045,10 +1045,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D6" s="7">
-        <v>16935</v>
+        <v>60267</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1060,10 +1060,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="I6" s="7">
-        <v>56922</v>
+        <v>92651</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1075,10 +1075,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>116</v>
+        <v>218</v>
       </c>
       <c r="N6" s="7">
-        <v>73857</v>
+        <v>152918</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1098,10 +1098,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>33</v>
+        <v>308</v>
       </c>
       <c r="D7" s="7">
-        <v>48835</v>
+        <v>324367</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1113,10 +1113,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>211</v>
+        <v>479</v>
       </c>
       <c r="I7" s="7">
-        <v>152357</v>
+        <v>325119</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1128,10 +1128,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>244</v>
+        <v>787</v>
       </c>
       <c r="N7" s="7">
-        <v>201192</v>
+        <v>649486</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1200,10 +1200,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>48</v>
+        <v>323</v>
       </c>
       <c r="D9" s="7">
-        <v>64884</v>
+        <v>340416</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1215,10 +1215,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>430</v>
+        <v>698</v>
       </c>
       <c r="I9" s="7">
-        <v>262441</v>
+        <v>435203</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1230,10 +1230,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>478</v>
+        <v>1021</v>
       </c>
       <c r="N9" s="7">
-        <v>327325</v>
+        <v>775619</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1253,10 +1253,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>75</v>
+        <v>576</v>
       </c>
       <c r="D10" s="7">
-        <v>127075</v>
+        <v>713598</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1268,10 +1268,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>332</v>
+        <v>833</v>
       </c>
       <c r="I10" s="7">
-        <v>289608</v>
+        <v>646839</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1283,10 +1283,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>407</v>
+        <v>1409</v>
       </c>
       <c r="N10" s="7">
-        <v>416684</v>
+        <v>1360437</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1322,7 +1322,7 @@
         <v>323</v>
       </c>
       <c r="I11" s="7">
-        <v>198268</v>
+        <v>198267</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1355,10 +1355,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>101</v>
+        <v>602</v>
       </c>
       <c r="D12" s="7">
-        <v>163577</v>
+        <v>750100</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1370,10 +1370,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>655</v>
+        <v>1156</v>
       </c>
       <c r="I12" s="7">
-        <v>487876</v>
+        <v>845106</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1385,10 +1385,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>756</v>
+        <v>1758</v>
       </c>
       <c r="N12" s="7">
-        <v>651453</v>
+        <v>1595206</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1408,10 +1408,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>46</v>
+        <v>359</v>
       </c>
       <c r="D13" s="7">
-        <v>91276</v>
+        <v>428119</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1423,10 +1423,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>233</v>
+        <v>585</v>
       </c>
       <c r="I13" s="7">
-        <v>196630</v>
+        <v>463526</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1438,10 +1438,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>279</v>
+        <v>944</v>
       </c>
       <c r="N13" s="7">
-        <v>287905</v>
+        <v>891644</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1510,10 +1510,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>67</v>
+        <v>380</v>
       </c>
       <c r="D15" s="7">
-        <v>124243</v>
+        <v>461086</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1525,10 +1525,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>421</v>
+        <v>773</v>
       </c>
       <c r="I15" s="7">
-        <v>432582</v>
+        <v>699478</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1540,10 +1540,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>488</v>
+        <v>1153</v>
       </c>
       <c r="N15" s="7">
-        <v>556825</v>
+        <v>1160564</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1563,10 +1563,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>76</v>
+        <v>532</v>
       </c>
       <c r="D16" s="7">
-        <v>113905</v>
+        <v>578506</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1578,10 +1578,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>307</v>
+        <v>812</v>
       </c>
       <c r="I16" s="7">
-        <v>268430</v>
+        <v>652022</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1593,10 +1593,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>383</v>
+        <v>1344</v>
       </c>
       <c r="N16" s="7">
-        <v>382335</v>
+        <v>1230529</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1665,10 +1665,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>100</v>
+        <v>556</v>
       </c>
       <c r="D18" s="7">
-        <v>150381</v>
+        <v>614982</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1680,10 +1680,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>614</v>
+        <v>1119</v>
       </c>
       <c r="I18" s="7">
-        <v>488395</v>
+        <v>871987</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1695,10 +1695,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>714</v>
+        <v>1675</v>
       </c>
       <c r="N18" s="7">
-        <v>638776</v>
+        <v>1486970</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1718,10 +1718,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>240</v>
+        <v>1830</v>
       </c>
       <c r="D19" s="7">
-        <v>395954</v>
+        <v>2102784</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>107</v>
@@ -1733,10 +1733,10 @@
         <v>109</v>
       </c>
       <c r="H19" s="7">
-        <v>1120</v>
+        <v>2803</v>
       </c>
       <c r="I19" s="7">
-        <v>933752</v>
+        <v>2149961</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>110</v>
@@ -1748,10 +1748,10 @@
         <v>112</v>
       </c>
       <c r="M19" s="7">
-        <v>1360</v>
+        <v>4633</v>
       </c>
       <c r="N19" s="7">
-        <v>1329706</v>
+        <v>4252746</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>113</v>
@@ -1820,10 +1820,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>328</v>
+        <v>1918</v>
       </c>
       <c r="D21" s="7">
-        <v>520020</v>
+        <v>2226850</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1835,10 +1835,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>2224</v>
+        <v>3907</v>
       </c>
       <c r="I21" s="7">
-        <v>1728216</v>
+        <v>2944425</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1850,10 +1850,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2552</v>
+        <v>5825</v>
       </c>
       <c r="N21" s="7">
-        <v>2248236</v>
+        <v>5171276</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P78_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P78_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB54E107-8C9D-4B1A-BBC2-A66E6A701A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA8FB1A5-A3B1-4C09-AC8A-E3DD86284D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{655891E2-32B0-4895-8524-2CCCBE7484E8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{66B65EA7-5AF0-44C7-8723-0CF3EE0A23A0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="103">
   <si>
     <t>Población según si la persona sustentadora principal trabaja actualmente en 2023 (Tasa respuesta: 66,62%)</t>
   </si>
@@ -65,352 +65,283 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
   </si>
   <si>
     <t>73,61%</t>
   </si>
   <si>
-    <t>83,93%</t>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
   </si>
   <si>
     <t>26,39%</t>
   </si>
   <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>95,13%</t>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
   </si>
   <si>
     <t>92,6%</t>
   </si>
   <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
   </si>
   <si>
     <t>7,4%</t>
   </si>
   <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,8 +756,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66153837-5E1F-4006-99D9-1236EB913C29}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD1CB86C-D1B9-452E-B9DC-235134CD0013}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -943,10 +874,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>55</v>
+        <v>363</v>
       </c>
       <c r="D4" s="7">
-        <v>58195</v>
+        <v>374127</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -958,10 +889,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>94</v>
+        <v>573</v>
       </c>
       <c r="I4" s="7">
-        <v>62456</v>
+        <v>362041</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -973,10 +904,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>149</v>
+        <v>936</v>
       </c>
       <c r="N4" s="7">
-        <v>120651</v>
+        <v>736168</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -994,10 +925,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7">
-        <v>2072</v>
+        <v>19783</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1009,10 +940,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>67</v>
+        <v>286</v>
       </c>
       <c r="I5" s="7">
-        <v>30195</v>
+        <v>129767</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1024,10 +955,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>69</v>
+        <v>303</v>
       </c>
       <c r="N5" s="7">
-        <v>32267</v>
+        <v>149550</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1045,10 +976,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>57</v>
+        <v>380</v>
       </c>
       <c r="D6" s="7">
-        <v>60267</v>
+        <v>393910</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1060,10 +991,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>161</v>
+        <v>859</v>
       </c>
       <c r="I6" s="7">
-        <v>92651</v>
+        <v>491808</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1075,10 +1006,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>218</v>
+        <v>1239</v>
       </c>
       <c r="N6" s="7">
-        <v>152918</v>
+        <v>885718</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1098,10 +1029,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>308</v>
+        <v>576</v>
       </c>
       <c r="D7" s="7">
-        <v>324367</v>
+        <v>886929</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1113,10 +1044,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>479</v>
+        <v>833</v>
       </c>
       <c r="I7" s="7">
-        <v>325119</v>
+        <v>583497</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1128,10 +1059,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>787</v>
+        <v>1409</v>
       </c>
       <c r="N7" s="7">
-        <v>649486</v>
+        <v>1470426</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1149,10 +1080,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D8" s="7">
-        <v>16049</v>
+        <v>37055</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1164,10 +1095,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>219</v>
+        <v>323</v>
       </c>
       <c r="I8" s="7">
-        <v>110084</v>
+        <v>179179</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1179,10 +1110,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>234</v>
+        <v>349</v>
       </c>
       <c r="N8" s="7">
-        <v>126133</v>
+        <v>216234</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1200,10 +1131,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>323</v>
+        <v>602</v>
       </c>
       <c r="D9" s="7">
-        <v>340416</v>
+        <v>923984</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1215,10 +1146,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>698</v>
+        <v>1156</v>
       </c>
       <c r="I9" s="7">
-        <v>435203</v>
+        <v>762676</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1230,10 +1161,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1021</v>
+        <v>1758</v>
       </c>
       <c r="N9" s="7">
-        <v>775619</v>
+        <v>1686660</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1253,10 +1184,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>576</v>
+        <v>359</v>
       </c>
       <c r="D10" s="7">
-        <v>713598</v>
+        <v>422005</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1268,10 +1199,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>833</v>
+        <v>585</v>
       </c>
       <c r="I10" s="7">
-        <v>646839</v>
+        <v>451110</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1283,10 +1214,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>1409</v>
+        <v>944</v>
       </c>
       <c r="N10" s="7">
-        <v>1360437</v>
+        <v>873115</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1304,10 +1235,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D11" s="7">
-        <v>36502</v>
+        <v>31758</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1319,10 +1250,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>323</v>
+        <v>188</v>
       </c>
       <c r="I11" s="7">
-        <v>198267</v>
+        <v>322172</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1334,10 +1265,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>349</v>
+        <v>209</v>
       </c>
       <c r="N11" s="7">
-        <v>234769</v>
+        <v>353930</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1355,10 +1286,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>602</v>
+        <v>380</v>
       </c>
       <c r="D12" s="7">
-        <v>750100</v>
+        <v>453763</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1370,10 +1301,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1156</v>
+        <v>773</v>
       </c>
       <c r="I12" s="7">
-        <v>845106</v>
+        <v>773282</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1385,10 +1316,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1758</v>
+        <v>1153</v>
       </c>
       <c r="N12" s="7">
-        <v>1595206</v>
+        <v>1227045</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1408,49 +1339,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>359</v>
+        <v>532</v>
       </c>
       <c r="D13" s="7">
-        <v>428119</v>
+        <v>558795</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>812</v>
+      </c>
+      <c r="I13" s="7">
+        <v>646785</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>585</v>
-      </c>
-      <c r="I13" s="7">
-        <v>463526</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>1344</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1205580</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="7">
-        <v>944</v>
-      </c>
-      <c r="N13" s="7">
-        <v>891644</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1459,49 +1390,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D14" s="7">
-        <v>32967</v>
+        <v>39438</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>307</v>
+      </c>
+      <c r="I14" s="7">
+        <v>197196</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>188</v>
-      </c>
-      <c r="I14" s="7">
-        <v>235952</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>331</v>
+      </c>
+      <c r="N14" s="7">
+        <v>236634</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="7">
-        <v>209</v>
-      </c>
-      <c r="N14" s="7">
-        <v>268920</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1510,10 +1441,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>380</v>
+        <v>556</v>
       </c>
       <c r="D15" s="7">
-        <v>461086</v>
+        <v>598233</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1525,10 +1456,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>773</v>
+        <v>1119</v>
       </c>
       <c r="I15" s="7">
-        <v>699478</v>
+        <v>843981</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1540,10 +1471,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1153</v>
+        <v>1675</v>
       </c>
       <c r="N15" s="7">
-        <v>1160564</v>
+        <v>1442214</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1557,55 +1488,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>532</v>
+        <v>1830</v>
       </c>
       <c r="D16" s="7">
-        <v>578506</v>
+        <v>2241856</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2803</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2043434</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>4633</v>
+      </c>
+      <c r="N16" s="7">
+        <v>4285290</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>812</v>
-      </c>
-      <c r="I16" s="7">
-        <v>652022</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1344</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1230529</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,49 +1545,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="D17" s="7">
-        <v>36476</v>
+        <v>128033</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1104</v>
+      </c>
+      <c r="I17" s="7">
+        <v>828314</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1192</v>
+      </c>
+      <c r="N17" s="7">
+        <v>956347</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>307</v>
-      </c>
-      <c r="I17" s="7">
-        <v>219965</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M17" s="7">
-        <v>331</v>
-      </c>
-      <c r="N17" s="7">
-        <v>256441</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,10 +1596,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>556</v>
+        <v>1918</v>
       </c>
       <c r="D18" s="7">
-        <v>614982</v>
+        <v>2369889</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1680,10 +1611,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1119</v>
+        <v>3907</v>
       </c>
       <c r="I18" s="7">
-        <v>871987</v>
+        <v>2871748</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1695,10 +1626,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1675</v>
+        <v>5825</v>
       </c>
       <c r="N18" s="7">
-        <v>1486970</v>
+        <v>5241637</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1711,171 +1642,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1830</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2102784</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2803</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2149961</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>4633</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4252746</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>88</v>
-      </c>
-      <c r="D20" s="7">
-        <v>124066</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1104</v>
-      </c>
-      <c r="I20" s="7">
-        <v>794464</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1192</v>
-      </c>
-      <c r="N20" s="7">
-        <v>918530</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1918</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2226850</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3907</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2944425</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5825</v>
-      </c>
-      <c r="N21" s="7">
-        <v>5171276</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
